--- a/Ten User Data.xlsx
+++ b/Ten User Data.xlsx
@@ -197,7 +197,7 @@
   <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:11"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="9:11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -284,133 +284,133 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>1</v>
+        <v>453</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="U2" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>144</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>84</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>83</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>43</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="U2" s="0" t="n">
-        <v>77</v>
-      </c>
       <c r="V2" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="W2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="X2" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="W2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="Y2" s="0" t="n">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>2</v>
+        <v>454</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>58</v>
+        <v>270</v>
       </c>
       <c r="E3" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="G3" s="0" t="n">
         <v>15</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>41</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>2</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>4</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="K3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="L3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <v>67</v>
-      </c>
-      <c r="Q3" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" s="0" t="n">
         <v>0</v>
       </c>
@@ -418,13 +418,13 @@
         <v>0</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W3" s="0" t="n">
         <v>2</v>
@@ -433,36 +433,36 @@
         <v>0</v>
       </c>
       <c r="Y3" s="0" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>3</v>
+        <v>455</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>66</v>
+        <v>155</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>100</v>
@@ -477,140 +477,140 @@
         <v>7</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T4" s="0" t="n">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="U4" s="0" t="n">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="V4" s="0" t="n">
         <v>4</v>
       </c>
       <c r="W4" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="0" t="n">
-        <v>86</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>4</v>
+        <v>456</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>169</v>
+        <v>255</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T5" s="0" t="n">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="U5" s="0" t="n">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="V5" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W5" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X5" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="0" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>5</v>
+        <v>457</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>333</v>
+        <v>57</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>132</v>
+        <v>252</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>0</v>
@@ -631,7 +631,7 @@
         <v>7</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="O6" s="0" t="n">
         <v>0</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="R6" s="0" t="n">
         <v>1</v>
@@ -649,13 +649,13 @@
         <v>1</v>
       </c>
       <c r="T6" s="0" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="U6" s="0" t="n">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="V6" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W6" s="0" t="n">
         <v>1</v>
@@ -664,107 +664,107 @@
         <v>0</v>
       </c>
       <c r="Y6" s="0" t="n">
-        <v>80</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>6</v>
+        <v>458</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="W7" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X7" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="0" t="n">
-        <v>94</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>7</v>
+        <v>459</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>88</v>
+        <v>227</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>0</v>
@@ -773,152 +773,152 @@
         <v>0</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>6</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P8" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="V8" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="W8" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="X8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="0" t="n">
         <v>58</v>
-      </c>
-      <c r="Q8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="S8" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="T8" s="0" t="n">
-        <v>89</v>
-      </c>
-      <c r="U8" s="0" t="n">
-        <v>76</v>
-      </c>
-      <c r="V8" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="W8" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="X8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y8" s="0" t="n">
-        <v>100</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>8</v>
+        <v>1354</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="L9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="M9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="V9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W9" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="N9" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="O9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="Q9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="0" t="n">
-        <v>28</v>
-      </c>
-      <c r="U9" s="0" t="n">
-        <v>48</v>
-      </c>
-      <c r="V9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="W9" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="X9" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="0" t="n">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>9</v>
+        <v>1355</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>324</v>
+        <v>138</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>138</v>
+        <v>62</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>0</v>
@@ -927,117 +927,117 @@
         <v>0</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="Q10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T10" s="0" t="n">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="U10" s="0" t="n">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="V10" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="W10" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X10" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="0" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>10</v>
+        <v>1356</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>139</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F11" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>79</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>36</v>
-      </c>
       <c r="G11" s="0" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="K11" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L11" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="N11" s="0" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P11" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="U11" s="0" t="n">
         <v>26</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="S11" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="T11" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="U11" s="0" t="n">
-        <v>86</v>
       </c>
       <c r="V11" s="0" t="n">
         <v>5</v>
@@ -1046,10 +1046,10 @@
         <v>3</v>
       </c>
       <c r="X11" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y11" s="0" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1071,7 +1071,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:11"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="9:11 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1097,7 +1097,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:11"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="9:11 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
